--- a/cs50_project1.xlsx
+++ b/cs50_project1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroshi/CS50_Project1_windows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-igarashi\Documents\CS50_Project1_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACA3970-3E91-DF45-9839-BFD983CD56D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24660" windowHeight="16940" xr2:uid="{C8784656-5598-1446-B636-024E7B3670C8}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="24660" windowHeight="16935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -179,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +277,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113298</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8019048" cy="3767352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,30 +618,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D48C3D-F5A5-3B49-94BE-C1190F008335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="1"/>
+    <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -621,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -642,7 +685,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -651,7 +694,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -660,12 +703,12 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -682,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="42">
+    <row r="12" spans="2:8" ht="39" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -699,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="42">
+    <row r="13" spans="2:8" ht="39" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
@@ -716,40 +759,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -769,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="42">
+    <row r="22" spans="2:7" ht="39" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
@@ -789,7 +832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -797,7 +840,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -805,7 +848,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -817,4 +860,69 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A17:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="38.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/cs50_project1.xlsx
+++ b/cs50_project1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-igarashi\Documents\CS50_Project1_windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroshi/CS50_Project1_windows/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C623771-C857-4E4E-B308-CF8EDE5A7A82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="24660" windowHeight="16935" activeTab="1"/>
+    <workbookView minimized="1" xWindow="5080" yWindow="520" windowWidth="25220" windowHeight="16920" xr2:uid="{C8784656-5598-1446-B636-024E7B3670C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -84,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bookrs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>isbn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,13 +171,17 @@
   </si>
   <si>
     <t>2019-02-17 17:16:58.215018</t>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,49 +278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113298</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52602</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8019048" cy="3767352"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,30 +576,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D48C3D-F5A5-3B49-94BE-C1190F008335}">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="1"/>
+    <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -664,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -685,7 +644,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -694,7 +653,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -703,107 +662,107 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="39" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="42">
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+    </row>
+    <row r="13" spans="2:8" ht="42">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>7</v>
@@ -812,27 +771,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="39" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" ht="42">
       <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -840,7 +799,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -848,7 +807,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -863,66 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE89B7C6-BAFE-2F45-A63A-BE8E99CC4A2D}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="6" max="6" width="38.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>